--- a/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
+++ b/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_data\admin_reseller_panel\new_feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD197C-DF7D-4711-A30E-CA810888EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA6662-24A6-4821-8655-D9FB1E1B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>Payment Method</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>stolen_card</t>
+  </si>
+  <si>
+    <t>E.Iter1</t>
+  </si>
+  <si>
+    <t>E.Iter2</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,12 +488,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -495,11 +513,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,12 +633,51 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +977,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -849,10 +992,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -861,219 +1004,220 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -1086,16 +1230,15 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1381,85 +1524,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD79B7-AB8D-4280-9947-CB0EFDE16E62}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="32" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="C8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="31" t="s">
         <v>132</v>
       </c>
+      <c r="C10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,7 +1675,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
+++ b/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_data\admin_reseller_panel\new_feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA6662-24A6-4821-8655-D9FB1E1B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB4DC8-DEEB-442A-98F5-F2F4641AB268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>Payment Method</t>
   </si>
@@ -436,6 +436,75 @@
   </si>
   <si>
     <t>E.Iter2</t>
+  </si>
+  <si>
+    <t>SSL Commerz</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Suspicious Transaction</t>
+  </si>
+  <si>
+    <t>Unattempted or Expired</t>
+  </si>
+  <si>
+    <t>Issuer Bank Declined</t>
+  </si>
+  <si>
+    <t>Network Connectivity Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled by User	</t>
+  </si>
+  <si>
+    <t>Do not honor</t>
+  </si>
+  <si>
+    <t>Invalid CVV</t>
+  </si>
+  <si>
+    <t>Invalid expiration date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Security Validation Failed	</t>
+  </si>
+  <si>
+    <t>Exp: 12/25</t>
+  </si>
+  <si>
+    <t>CVV: 111</t>
+  </si>
+  <si>
+    <t>Mastercard:</t>
+  </si>
+  <si>
+    <t>Card Number: 5111111111111111</t>
+  </si>
+  <si>
+    <t>American Express:</t>
+  </si>
+  <si>
+    <t>Card Number: 371111111111111</t>
+  </si>
+  <si>
+    <t>SSL Commerce</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>Mobile OTP: 111111 or 123456</t>
   </si>
 </sst>
 </file>
@@ -473,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,12 +569,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -599,11 +674,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,51 +788,73 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,10 +1154,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -992,10 +1169,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="39"/>
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -1004,207 +1181,207 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -1246,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BEE1B6-CD72-4CB2-BA42-EE1803BEC9B3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,6 +1586,70 @@
       </c>
       <c r="B19" s="9" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1524,146 +1765,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD79B7-AB8D-4280-9947-CB0EFDE16E62}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="17.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="18"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="18"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
+++ b/test_data/admin_reseller_panel/new_feature/failed_log_and_response_to_the_users_while_user_active_with_payment_gateway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_data\admin_reseller_panel\new_feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD197C-DF7D-4711-A30E-CA810888EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB4DC8-DEEB-442A-98F5-F2F4641AB268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>Payment Method</t>
   </si>
@@ -430,6 +430,81 @@
   </si>
   <si>
     <t>stolen_card</t>
+  </si>
+  <si>
+    <t>E.Iter1</t>
+  </si>
+  <si>
+    <t>E.Iter2</t>
+  </si>
+  <si>
+    <t>SSL Commerz</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Suspicious Transaction</t>
+  </si>
+  <si>
+    <t>Unattempted or Expired</t>
+  </si>
+  <si>
+    <t>Issuer Bank Declined</t>
+  </si>
+  <si>
+    <t>Network Connectivity Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled by User	</t>
+  </si>
+  <si>
+    <t>Do not honor</t>
+  </si>
+  <si>
+    <t>Invalid CVV</t>
+  </si>
+  <si>
+    <t>Invalid expiration date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Security Validation Failed	</t>
+  </si>
+  <si>
+    <t>Exp: 12/25</t>
+  </si>
+  <si>
+    <t>CVV: 111</t>
+  </si>
+  <si>
+    <t>Mastercard:</t>
+  </si>
+  <si>
+    <t>Card Number: 5111111111111111</t>
+  </si>
+  <si>
+    <t>American Express:</t>
+  </si>
+  <si>
+    <t>Card Number: 371111111111111</t>
+  </si>
+  <si>
+    <t>SSL Commerce</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>Mobile OTP: 111111 or 123456</t>
   </si>
 </sst>
 </file>
@@ -467,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,12 +557,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -495,11 +588,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,12 +788,73 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +1154,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -849,10 +1169,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="39"/>
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -861,219 +1181,220 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -1086,16 +1407,15 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1103,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BEE1B6-CD72-4CB2-BA42-EE1803BEC9B3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,6 +1586,70 @@
       </c>
       <c r="B19" s="9" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1381,84 +1765,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD79B7-AB8D-4280-9947-CB0EFDE16E62}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="C8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +2008,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
